--- a/biology/Zoologie/Enantia_aloikea/Enantia_aloikea.xlsx
+++ b/biology/Zoologie/Enantia_aloikea/Enantia_aloikea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enantia aloikea est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Dismorphiinae et du genre Enantia.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enantia aloikea a été décrit par Christian Brévignon en 1993[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enantia aloikea a été décrit par Christian Brévignon en 1993.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le revers est nacré.
 </t>
@@ -570,12 +586,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'est présent qu'en Guyane.
+</t>
         </is>
       </c>
     </row>
@@ -605,10 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'est présent qu'en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
